--- a/machine/harare/updated - classified.xlsx
+++ b/machine/harare/updated - classified.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="1" r:id="rId1"/>
     <sheet name="scraped" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scraped!$A$1:$C$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">updated!$A$1:$S$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">scraped!$A$1:$C$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">updated!$A$1:$S$91</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="231">
   <si>
     <t>toilets</t>
   </si>
@@ -33,9 +33,6 @@
     <t xml:space="preserve">local_authority </t>
   </si>
   <si>
-    <t>ward</t>
-  </si>
-  <si>
     <t>type_of_property</t>
   </si>
   <si>
@@ -132,18 +129,6 @@
     <t>interior</t>
   </si>
   <si>
-    <t xml:space="preserve"> Marlborough - House, Townhouse Complex </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: LEG179735 Rental Alert..! Marlbough cluster house to rent -3 beds cluster to rent main with ensuite -With BIC -Fitted kitchen with fitted stove open plan dinning and lounge -Prolific borehole -Walled and gated Rent plus deposit Rent 900 Deposit 900 Lease fee applicable </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mount Pleasant Heights - House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: LEG180055 Mount Pleasant Heights   Rental 1200.00 plus deposit   A neat 4 bedroomed house in the suburb of Mount Pleasant Heights, all bedrooms with Built-in-Cupboards, main with an ensuite (with both shower and tub). The house has 2 lounges, a dining right next to a very Modern kitchen with Built-in-cupboards a centre island with a four plate electric stove and a four plate gas stove and a seperate bath and toilet. There's also a double lockup garage, solar backup prolific borehole, a 5000l tank and solar. All sitting on 2000sqm. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Helensvale - House, Townhouse Complex, House, Townhouse Complex </t>
   </si>
   <si>
@@ -180,9 +165,6 @@
     <t xml:space="preserve"> Ref.: GAT180855 We have a three-bedroom house available for rent in the Borrowdale area, specifically on the Crowhill side. The house features a shared bath and toilet, a modern fitted kitchen, and a double locked garage door. Additionally, it is equipped with a 3KVA solar system and lithium battery that provides power to all rooms, as well as a 6000-liter water tank. The property sits on a spacious 1000 square meter land size.  In terms of location, the house is conveniently situated near Crowhill Primary School. For added security, there is a safeguard response alarm system available with a quarterly subscription fee of 174 USD for three months. Furthermore, the house includes a solar geyser for energy-efficient water heating and a 3-meter high durawall for enhanced privacy and security and safeguard response alarm system, a 3m height durawall The rental price for all these features and amenities is US$800. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Chisipite - House </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mabelreign - House, Cottage </t>
   </si>
   <si>
@@ -240,21 +222,6 @@
     <t xml:space="preserve"> Norton - House </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: PRCL169198 Located in the peaceful and quiet suburb of Zororo- Norton is this neat home. Three bedrooms with BICs, two bathrooms, main bedroom has an en-suite. A beautiful kitchen with modern finishing, spacious lounge, separate dining room and a laundry room. The property also comes with a beautifully thatched rondavel which can be used as storage space, a borehole and a 5000 liter water tank, ample space for gardening. Property is walled and gated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mt Pleasant Heights - House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: SORE180463 This incredible property offers the perfect blend of luxury and comfort, consisting of a spacious main house and a charming cottage. Located in the prestigious low-density area of Mt. Pleasant Heights, this is an opportunity not to be missed.  Main House includes: - 5 bedrooms with 3 ensuites for maximum privacy and convenience. - Separate toilet and combined bathroom for added functionality. - Modern kitchen with a stylish kitchen island. - Welcoming walk-in pantry and scullery for ample storage space. - Two sunken lounges providing cozy spaces to relax and entertain. - Guest wing offering independent accommodation for guests or extended family. - Generator backup system, ensuring continuous power supply during any possible outages. - Benefit from a prolific borehole, ensuring unlimited water supply. - Fenced entertainment area specifically created for kids to play and have fun. - Convenient double lockup garage to securely park your vehicles. - Walled, gated, and paved for added security and aesthetic appeal. - Enjoy the beauty of a well-maintained garden. - Electric fence surrounding the property for enhanced security.  Cottage: - 3bed and a double lockup garage.  All these exceptional features can be yours for an amazing price of $2500.  Don't miss out on this rare opportunity to make this truly marvelous property your own. Call now to schedule a viewing and secure your dream home in Mt. Pleasant Heights! </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chitungwiza - House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: SEF180251 Located along a main road and a stone's throw away from a shopping complex is this walled and gated 4 bed house comprising of a kitchen, lounge, separate bathroom and toilet. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ruwa - House, Townhouse Complex </t>
   </si>
   <si>
@@ -267,21 +234,12 @@
     <t xml:space="preserve"> Ref.: PRCL168215 Conveniently located close to all local amenities is a beautiful family home in the Northwood area within a walking distance from Arundel shopping centre. The property is uniquely designed with the following distinctive interior partitions, the property has two lounges with the main lounge overlooking the swimming pool through the aluminum framing sliding door, modern fitted kitchen will be the joy of every women working in this specious kitchen, three medium sized bedrooms with separate family bath &amp; toilet will complete the interior partitioning of this lovely home.  The exterior features which will capture the interest of many include the entertainment area overlooking the swimming pool, double lock-up garage, single domestic quarters, water storage tank &amp; a prolific borehole. The place a good security system in the form of a brick perimeter wall and an electric gate. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: PRCL181050 Welcome to this charming fully furnished upstairs home, offering a delightful and cozy living experience. This 2-bedroom property boasts a spacious lounge, a well-appointed kitchen, and a convenient common bathroom. As you ascend to the upstairs unit, you will be immediately impressed by the warm ambiance and thoughtful layout of the living space. The home also consists of a fully equipped kitchen, complete with modern appliances and ample storage space. Both bedrooms are comfortably furnished and offer a peaceful retreat for rest and relaxation. Say goodbye to traditional electricity bills and embrace the advantages of solar energy. Additionally, the property benefits from borehole water, providing a reliable and uninterrupted water supply. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Zengeza - House, House </t>
   </si>
   <si>
     <t xml:space="preserve"> Ref.: SEF180144 Situated in Zengeza 5, Chitungwiza, sits a charming 2 bedroom house ready to welcome you home. This house offers spacious living with an open kitchen and dining area. One bedroom has a private ensuite bathroom for added comfort, while a separate shower and guest toilet ensure convenience for everyone. The current tenant occupies the other wing of the house, ensuring your privacy. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Mount Pleasant - House, Cottage </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: PRCL179175 This exceptional home boasts of a spacious interior featuring three generous bedrooms, each designed to create a serene atmosphere for rest and relaxation. a borehole, ensuring a constant water supply, and offers state-of-the-art security measures, including an electric gate and a private entrance, providing peace of mind 24/7. For added convenience, this property offers an array of storage options, including a garage and a she's, allowing for ample space to accommodate all your storage requirements. Don't miss the opportunity to call this property your own. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Highlands - House </t>
   </si>
   <si>
@@ -330,15 +288,6 @@
     <t xml:space="preserve"> Ref.: GAT181224 Welcome to this Greendale apartment in a complex of 5 units, brought to you by Guest and Tanner. This property offers a range of desirable features. On the ground floor, you will find a Fitted kitchen with a pantry room, a spacious lounge and dining area, a convenient guest toilet, and one bedroom. Moving to the first floor, there are three bedrooms, another lounge area, a family toilet, and a family bathroom. All bedrooms are fitted with beautiful built-in cupboards (BIC), and the master bedroom boasts an en-suite bathroom and a walk-in closet.  Residents of this complex have the advantage of a reliable borehole that provides water for the entire community. Additionally, the property is highly secure, with a sturdy perimeter wall, night guard, and an electric gate. A caretaker is also available to maintain the yard, ensuring a well-kept environment. This property is conveniently located near shops and schools, making it an ideal choice for families. Furthermore, it offers a single lockup garage and a carport that can accommodate two cars.  Don't miss out on the opportunity to make this beautiful apartment your new home. Contact us today for more information or to schedule a viewing. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: BIN177214 Fully furnished two bedrooms with very modern furnishings available for short or long lease. Back up power full WIFI and DStv .Second floor unit in a complex that is well equipped with a gym, entertainment area beautiful gardens.24Hr security.Book your viewing slot . </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mount Pleasant - Townhouse Complex, House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: PGP2063 Modern apartment near the University - consists of three bedrooms each with a balcony and two bathrooms (one en suite) upstairs. Downstairs is an open plan kitchen/living area and guest toilet. There is small private back outside area containing a large wash basin and washing line. Unit has its own 5000l water tank and pump- Council water - not guaranteed. There is excellent security, with a high wall, electric fence and gate and 24 hour guard. Back up solar inverter available but tenant must provide own batteries. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: SPLD180854 Modern vacant 4 beds mes separate lounge and dining room modern fitted kitchen borehole water electric gate manicured gardens solar back up big yard </t>
   </si>
   <si>
@@ -426,27 +375,15 @@
     <t xml:space="preserve"> Ref.: PSP148376 In Houghton Park, close to OK Houghton Park, is this neat home available 01 Feb 2024. This house comes with 3 bedrooms, lounge, dining area, newly fitted kitchen, separate bathroom and toilet. The whole house has been renovated and also comes with a full solar system, water tank, walled &amp; gated, single carport and a cabin. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Marlborough - House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: SEF178273 Immerse yourself in the epitome of spacious living with this remarkable property, featuring a grand 5-bedroom house with built in cupboards, prolific borehole, paved yards, CCTV cameras, Off-grid solar back up, secured verandah ,fitted 4 plate gas stove, double door fridge, two bathrooms and a separate toilet complemented by a charming two-bedroom cottage. This exceptional residence offers ample accommodations, catering to the needs of families or those seeking extra space for guests, home workers, or extended family. The property seamlessly blends comfort, security. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Milton Park - House </t>
   </si>
   <si>
     <t xml:space="preserve"> Ref.: DTP173342 Spacious home located in the mixed use suburb of Milton Park, which makes the property suitable for both residential and commercial use. The property has 2 bedrooms with the main bedroom en-suite, fitted kitchen, scullery, dining room, lounge area and separate toilet.  Available for immediate occupation.  Please note that the property comes with a maid and gardener at this price and the issue of maid and gardener is not negotiable </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: PRCL181046 Nestled in a serene neighborhood, this property offers a modern lounge and kitchen, along with two spacious en-suite bedrooms and a common bathroom. Step inside this tastefully furnished home and be greeted by the harmonious blend of style and functionality. The lounge is an inviting space, ideal for relaxation or entertaining guests. The home comes with a fully equipped kitchen, providing all necessary appliances and ample countertop space for your culinary adventures. Both bedrooms boast en-suite bathrooms, providing privacy and convenience for you and your guests. The bathrooms are thoughtfully designed with contemporary fixtures and fittings, ensuring a comfortable and luxurious experience.  Notably, this home proudly features full solar power, allowing you to contribute to a sustainable lifestyle while enjoying uninterrupted electricity. Additionally, a borehole on the property supplies water, unaffected by water shortages or restrictions. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: BRE179038 Located in a very quiet neighbourhood and offering 4 beds with a main ensuite,3 lounges, fitted kitchen with oven and hob,scullery,pantry,dining,a newly built 2 beds self-contained cottage and a 3 roomed staff quarters, on toilet and shower with a single carport. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: PSP0980 Contemporary town houses with 5 bedrooms, 3 en-suite including the main bedroom. Spacious open plan lounge and dining room. Kitchen with pantry, scullery and laundry room.   Study upstairs or alternate laundry room. Two bedrooms with a balcony overlooking the pool or courtyard.  Communal gym ( currently being used at office).  Deep pool and large garden perfect for entertainment.  Security guard at gate. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: PGP180384 Stylish and luxurious, this exquisite furnished townhouse in Highlands is now available for rent. The property boasts a grand entrance hallway that leads to a spacious and elegantly furnished lounge. The lounge seamlessly opens up to a stunning plunge pool, offering a perfect oasis for relaxation and entertainment.  Adjacent to the lounge, there is a sophisticated dining area and a modern, fully equipped kitchen, providing an ideal setting for culinary mastery.  On the lower level, a tastefully designed bedroom awaits, complete with its own en suite bathroom, offering utmost privacy and comfort.  Moving to the upper level, you will discover two additional well-appointed bedrooms, harmonized by a contemporary family bathroom. The piÃ¨ce de rÃ©sistance is the magnificent master bedroom, which features an opulent en suite bathroom and an expansive walk-in closet.  Moreover, this remarkable townhouse benefits from borehole water and backup power, guaranteeing uninterrupted functionality and convenience.  Enveloped in elegance and located in the esteemed Highlands neighborhood, this townhouse presents an unparalleled opportunity to experience the epitome of refined living. </t>
   </si>
   <si>
@@ -486,12 +423,6 @@
     <t xml:space="preserve"> Ref.: MAC127931 A neat 3 bedroomed house x2 ensuite, lounge, dinning, fitted kitchen, single lock up garage, x3 5000 liters water tank, borehole, functional swimming pool, well maintained yard, walled and gated, fruit trees, Staff Quarter. Available for occupation on 1 August </t>
   </si>
   <si>
-    <t xml:space="preserve"> Mount Pleasant Heights - House, Townhouse Complex </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: SEF167335 This stunning recently renovated 4-bedroom home is perfect for a growing family. It features a spacious open plan living and dining area, a modern kitchen with fitted cupboards, and porcelain floors throughout. The second lounge/office is perfect for a home office or playroom, and the four bedrooms all have built-in cupboards, with one bedroom having an ensuite, The master bedroom has its own en suite bathroom, and there is also a family bathroom. There is solar backup. The property is serviced by borehole water, which is stored in a 5000L water tank. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hogerty Hill - House </t>
   </si>
   <si>
@@ -552,12 +483,6 @@
     <t xml:space="preserve"> Ref.: RMXA181091  Double storey house for rent in Gletwin Park  Ground Floor: - Modern fitted kitchen equipped with top-of-the-line Smeg appliances: fridge, gas stove, oven, coffee maker, and electric stove.  - Pantry for all your storage needs.  - Dining room for elegant meals with family and friends.  - Two spacious lounges, one with a cozy fireplace for those chilly evenings.  - Main bedroom fit for royalty, complete with a fireplace, ensuite bathroom with a massage shower, walk-in closet, and a mini lounge for relaxation.  - Guest bathroom and toilet for the convenience of your visitors.  - Storeroom to keep your belongings organized.  - Garage with space for four cars, so you can park in style.  Guest Wing - Open-plan lounge, dining area, and fitted kitchen, perfect for entertaining guests.  - Bedroom with ensuite bathroom and walk-in closet for your guests' comfort.  - Private entrance, ensuring privacy for both you and your guests.  First Floor: - Additional lounge for relaxation and family time.  - Four spacious bedrooms, each with its own ensuite bathroom equipped with a massage shower and walk-in closet.  - Library available - Guest toilet for the convenience of your family and visitors.  Bar/Gym: - Fully equipped bar area for hosting parties and unwinding after a long day.  - Entertainment area with ample space for a pool table or home theater.  - State-of-the-art gym for your daily workout routine.  - Bathroom with massage shower and sauna for ultimate relaxation.  Cottage: - Three cozy bedrooms for your extended family or staff.  - Fitted kitchen for preparing meals and snacks.  - Separate bathroom and toilet for added convenience.   Additional Features:  - Borehole and solar backup to ensure a steady supply of water and electricity.  - Generator for peace of mind during power outages.  - Air conditioners in all rooms for a comfortable indoor climate.  - Walled and gated property for enhanced security.  - Guard room for added protection.  - Swimming pool for refreshing dips and summer fun.  - 5000-liter water tank for water storage.  - Garage for secure parking.  - Well-manicured garden with beautiful landscaping.  This luxurious double-storey home in Gletwin Park has everything you need for a comfortable and stylish lifestyle. Schedule a viewing today and experience the epitome of luxury living! </t>
   </si>
   <si>
-    <t xml:space="preserve"> New Marlborough - House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: GLRE178958 *_New Marlborough, Red roofsâ€¦..5 BEDROOMED HOUSE TO RENT_*  â€¢ 5Bedrooms with Ensuite, all with fitted wardrobes â€¢ Main Kitchen &amp; kitchenette all with fitted wardrobes â€¢ Separate bathroom and toilet â€¢ Solar Geyser â€¢ Borehole and tank â€¢ walled and gated  â€¢ Deposit required â€¢ Immediate Occupation  *_$1200* </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Helensvale - Cottage, House </t>
   </si>
   <si>
@@ -594,9 +519,6 @@
     <t xml:space="preserve"> Ref.: MNP173338 This beautiful home will be available 1 October 2023 The home has four bedrooms, main bedroom, which is upstairs, is en suite and has a walking closet. There are 3 bedrooms in a separate wing with 2 bathrooms overlooking the garden and swimming pool. The same wing also has a bar, TV room and play room. The large, modern kitchen has a breakfast nook, which leads on to the dining room and second lounge.  The home has a long cover patio, a braai area over looking the pool and a built in seating with a fire pit. There is also a well maintained tennis court.  The property has a prolific borehole.  It can also be rented with the furniture for $4000 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: SEF157012 A standard three bedroom cottage which has been recently renovated is available for immediate occupation. The cottage comprises of a kitchenet , lounge cum dining,all bedrooms have built in cupboards, family bathroom. The property has a borehole, 5000 liter water tank for backup ,walled and gated. There is a communal garden. An extra cost for water will be  required each month, as the cottage has its own water meter and zesa meter. Dstv ,wifi and tel one connections are available. One carport for parking two cars. Kindly take note they are two families at the property currently. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: PNT180311 Guest Wing To Let comprising of 3 bedrooms, separate toilet &amp; shower, kitchenette, pantry, big lounge.  Own entrance on the ground floor, with scenic views, serene environment, walled &amp; gated,  $800-00 per month plus deposit. Occupation is for 1st of January 2024 Contact Chamu </t>
   </si>
   <si>
@@ -618,15 +540,6 @@
     <t xml:space="preserve"> Ref.: KNP180493 Upmarket cluster home in Highlands available for 1st February 2024. 4 bedrooms (main bed and bedroom 1 with en-suite facilities and two bedroom rooms sharing toilet and shower) Lounge  Open plan dining and kitchen  Wifi available Solar back up 5Kva plus back up Generator  Solar geyser  Geysers electric or solar Water (shared borehole) and back up private borehole  Security guard Partially furnished. No Pets </t>
   </si>
   <si>
-    <t xml:space="preserve"> Mount Pleasant - House </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: PNT179610 Comprising of 4 big bedrooms. Trellidoors to the main bedroom. Main en suite with a shower and bath. Second bathroom with a shower.  Open plan lounge / dining room / kitchen.  Alarm, borehole. Swimming pool and domestic quarters. Solar backup. $2k Unfurnished $2.5k Furnished Contact Letwin </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: PSP167468 Modern, well maintained 4 bedroomed house (Main ensuite),seperate bath and toilet, dining, lounge, kitchen, bar, tennis court and entertainment area overlooking the swimming pool. Available 1 August 2023. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Southview Park - House </t>
   </si>
   <si>
@@ -651,18 +564,12 @@
     <t xml:space="preserve"> Ref.: MSR0113 A neat house with 4 bedrooms, fitted kitchen, pantry,2 separate lounges, separate dining, main ensuite, combined bathroom and toilet, separate toilet, guest wing with bedroom and living room, combined toilet and bath, double lock up garage, 1 room cottage with its own toilet and bath, prolific borehole, solar geyser, 5kv solar system, walled and electric gate. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: RRT180198 Newly Built Double Storey House comprising of 4 bedrooms( mes), lounge, dinning, modern fitted kitchen, hob, oven and breakfast nook, double lock up garage, good borehole , walled and gated. On an acrea </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Msasa Park - House </t>
   </si>
   <si>
     <t xml:space="preserve"> Ref.: DDL169883 3 Bedrooms , lounge , fitted , kitchen. , separate bathroom and toilet , Well , Walled and Gated Occupation 1st January 2024. Rent and Deposit </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: PNT180963 To let in a super prime location is this property which is suitable for NGOs , Diplomats or those who want to live in a peaceful and secure environment breathing fresh air....  Property features are as follows;- 5 bedrooms with a main en suite and 2 other bathrooms 4x 5000l tank, electric gate, razor wire, Safeguard Alarm system kitchen with fitted stove, separate dining  extremely spacious and carpeted bedrooms  lounge and a bar area or can be a 2nd lounge 4 roomed staff quarters  well maintained garden  intercom working, double lockup garage  beautiful outside views, swimming pool (non-functional), entertainment area  4 x 5000l water tanks $3500p/m Contact Kuda </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Greystone Park - House, Townhouse Complex </t>
   </si>
   <si>
@@ -672,51 +579,27 @@
     <t xml:space="preserve"> Ref.: HLX179653 This stunning 3 bedroom unit offers modern living in the secure and sought-after neighbourhood of Greendale. Conveniently located less than 5km from Food Lovers, you'll enjoy easy access to all your shopping needs.  Features:  3 spacious bedrooms Modern kitchen with ample storage Open-plan living and dining area 10,000L water tank Caretaker and 24-hour security Backup solar power Secure parking This unit is perfect for a young family looking for a safe and comfortable place to call home. Levies inluded. Available January 1st 2024. Contact us today to arrange a viewing! </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: MAC142098 A beautiful and modernized 5 bed roomed house to rent with potential to use as Consultancy Offices, Ambassador residence, with a functional swimming pool, well maintained garden and bushes, 2 bedroomed cottage, staff quarters, prolific borehole, x2 5000 liters water tank. Available for immediate occupation </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: PSP178353 We are proud to present a four-bed home with two bathrooms, three lounges, dining room, spacious fitted kitchen with a pantry, Outside this property offers a newly built staff quarters, landscaped garden with plenty yard space for gardening, good water supply from a borehole, water tank, pool, property is walled and gated. Available 1 January 2024. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: GLRE181253 *Mt Pleasant â€”-4 beds mes with walkin dressing area, 2 lounges , conversation room,dinning, modern kitchen, scullery, 2 bathrooms, trellidor security bars, guest wing with kitchenette, bathroom and bedroom own entrance. Prolific borehole , functional swimming and 4 roomed cottage.available </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: DLDP181250 Chitungwiza unit B , massive ,executive 4 bedroomed house ,fitted b.i.c , main ensuite ,plus 2 seperate toilets bath tubs, shower, spacious lounge , dining , fitted kitchen , floor and roof tiled ,nice ceiling , recentily renovated , walls intact , paved surfaces,lots of parking space , strategically located and convenient to most amenities , on nearly 500 sqms , rental USA 450 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: DLDP181249 Location: Chitungwiza, New Zengeza 4 Bedrooms: 3 bedrooms with built-in cupboards Kitchen: Fitted kitchen Flooring: Tiled floors Roof: Tiled roof Security: Screened, burglar-barred, face-bricked house, durawalled, and gated Parking: Lots of parking space  Additional features: Pantry, dining room, lounge, access to projects due to space, and road frontage Size: Sitting on 500 square meters Rent: US$300.00 per month </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Haig Park - House </t>
   </si>
   <si>
     <t xml:space="preserve"> Ref.: PNT181201 Sitting on 6 000 square meters comes with a dilapidated house that can be used for storage, truck stop, or for residential use there's a cottage which currently has tenants. It's a corner stand close just Off Sherwood Road. Prolific Borehole. Water tank.  $1200 rental  Contact Kuda </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: SPLD181162 Vacant recently renovated 5 beds mes separate lounge and dining room modern fitted kitchen borehole water walled and gated </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Glen Lorne - House, Cottage </t>
   </si>
   <si>
     <t xml:space="preserve"> Ref.: TNR181137 Fully furnished Cottage with 1 bed, lounch, kitchen, separate toilet zesa, solar and wifi. All for 650.00 as from 1 Feb. In exclusive Glen lorne area. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: PRV13253 mount pleasant heights four-bedroomed house with main bedroom ensuite, fitted kitchen, two bathrooms, gym, study room, store room, double lock up garage, driveway, prolific borehole, 500l tank, solar system, beautiful garden, walled and gated. Spacious lounge, dining room </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: RVT181087 Highlands house to Let!! Rent: 3k negotiable 4 beds, mes, seperate bath and toilet, kitchen with fitted gas stove, lounge, dining, borehole, water tank,  Well maintained gardened,  On 4000mÂ² </t>
   </si>
   <si>
     <t xml:space="preserve"> Ref.: APS181081 3 Bedroom Townhouse to Rent in Greendale. Available 1st February 2024!  USD$1,700. 00 Cash, plus City of Harare Rates bill.   This cosey townhouse is securely situated in a gated community in Greendale, within walking distance from Food Lovers Market. It comprises of 3 bedrooms, a family bathroom and main en-suite. All bedrooms have BICs.  There is a kitchen, open plan lounge with fireplace and dining room. Outside, there is a large veranda - perfect for entertaining, overlooking an inviting swimming pool and built-in braai area. There is a double lock-up garage, and a laundry room.  The single staff quarters has its own entrance.  The Property comes equipped with 5000L water tank, and a solar geyser.   Borehole and Prepaid ZESA meter.   For further information or to arrange a viewing please contact Toya. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Ref.: DLDP181066 Location: Chitungwiza (specific area not mentioned)  Type: 3-bedroom core house (possibly meaning a standard residential house)  Condition: Nicely renovated, well-painted  Security: Durawalled, gated, and tight security for peace of mind  Price: US$260 per month (presumably rent) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ref.: PRV13249 Location: chisipite (the property is under renovations ) vacant first of february the property is in a close and quite neighbourhood which offers a boomgate and security on guard and is just 2 minutes away on foot to oriel girls school and less than 5 minutes drive to chisipite shopping center description: be the first to occupy this spic and span newly renovated 3 beds house with main ensuite, nice kitchen, newly paved ,borehole water with a 5000ltr tank , solar geyser ,swimming pool ,3 roomed staff qauters walled and gated rental: us$2,000 per month contact: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ref.: GBR181023 4 Beds (m.e.s.) Lounge, Kitchen, Pantry, Laundry, Bathroom, Separate Toilet/Shower, Guest Toilet, Borehole, 5000 Litres Water Tank, </t>
   </si>
   <si>
@@ -780,13 +663,55 @@
     <t>Unit F</t>
   </si>
   <si>
-    <t>Budiriro</t>
-  </si>
-  <si>
     <t>Chadcombe</t>
   </si>
   <si>
     <t>Chisipite</t>
+  </si>
+  <si>
+    <t>Unit B</t>
+  </si>
+  <si>
+    <t>Marlborough</t>
+  </si>
+  <si>
+    <t>Mount Pleasant</t>
+  </si>
+  <si>
+    <t>Harare East</t>
+  </si>
+  <si>
+    <t>Dzivarasekwa</t>
+  </si>
+  <si>
+    <t>Epworth South</t>
+  </si>
+  <si>
+    <t>Harare West</t>
+  </si>
+  <si>
+    <t>Hunyani</t>
+  </si>
+  <si>
+    <t>Harare Central</t>
+  </si>
+  <si>
+    <t>Zengeza East</t>
+  </si>
+  <si>
+    <t>Chitungwiza North</t>
+  </si>
+  <si>
+    <t>constituency</t>
+  </si>
+  <si>
+    <t>Hatfield</t>
+  </si>
+  <si>
+    <t>Budiriro 4</t>
+  </si>
+  <si>
+    <t>Budiriro North</t>
   </si>
 </sst>
 </file>
@@ -1132,11 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,8 +1074,8 @@
     <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
@@ -1169,75 +1093,75 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="R1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>3000</v>
@@ -1255,13 +1179,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1294,15 +1218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1800</v>
@@ -1320,13 +1244,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -1359,15 +1283,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2500</v>
@@ -1385,13 +1309,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1424,15 +1348,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>3000</v>
@@ -1450,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1489,15 +1413,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1700</v>
@@ -1515,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1554,15 +1478,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
       <c r="D7">
         <v>2000</v>
@@ -1580,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1619,15 +1543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>3500</v>
@@ -1645,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1684,15 +1608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1200</v>
@@ -1710,54 +1634,54 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9">
+        <v>219</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10">
         <v>8000</v>
@@ -1775,13 +1699,13 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1814,15 +1738,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -1840,13 +1764,13 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1879,15 +1803,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1800</v>
@@ -1905,13 +1829,13 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1944,15 +1868,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>600</v>
@@ -1970,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
+        <v>219</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2009,15 +1933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>3500</v>
@@ -2035,13 +1959,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
+        <v>219</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2074,15 +1998,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>3000</v>
@@ -2100,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
+        <v>219</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2139,15 +2063,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>2500</v>
@@ -2165,13 +2089,13 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2204,15 +2128,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -2230,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2269,15 +2193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>3500</v>
@@ -2295,13 +2219,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18">
-        <v>7</v>
+        <v>219</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2334,15 +2258,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>3500</v>
@@ -2360,12 +2284,12 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19">
+        <v>219</v>
+      </c>
+      <c r="K19" t="s">
         <v>19</v>
       </c>
       <c r="L19">
@@ -2399,15 +2323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>1100</v>
@@ -2425,12 +2349,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20">
+        <v>219</v>
+      </c>
+      <c r="K20" t="s">
         <v>19</v>
       </c>
       <c r="L20">
@@ -2464,15 +2388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>3500</v>
@@ -2490,13 +2414,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2529,15 +2453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>2700</v>
@@ -2555,12 +2479,12 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22">
@@ -2594,15 +2518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>1300</v>
@@ -2620,12 +2544,12 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
         <v>19</v>
       </c>
       <c r="L23">
@@ -2659,15 +2583,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>2300</v>
@@ -2685,13 +2609,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2724,15 +2648,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>4000</v>
@@ -2750,13 +2674,13 @@
         <v>6</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2789,15 +2713,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>3000</v>
@@ -2815,13 +2739,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2854,15 +2778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>1000</v>
@@ -2880,13 +2804,13 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27">
-        <v>40</v>
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2919,15 +2843,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>250</v>
@@ -2945,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>202</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2984,15 +2908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>900</v>
@@ -3010,13 +2934,13 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -3049,15 +2973,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>1300</v>
@@ -3075,13 +2999,13 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -3114,15 +3038,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>1200</v>
@@ -3140,13 +3064,13 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -3179,15 +3103,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1250</v>
@@ -3205,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -3244,15 +3168,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>400</v>
@@ -3270,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -3309,15 +3233,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>2500</v>
@@ -3335,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34">
-        <v>41</v>
+        <v>223</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -3374,15 +3298,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>1500</v>
@@ -3400,13 +3324,13 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3439,15 +3363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>600</v>
@@ -3465,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3504,15 +3428,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>550</v>
@@ -3530,13 +3454,13 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37">
-        <v>13</v>
+        <v>224</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3569,15 +3493,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>1000</v>
@@ -3595,13 +3519,13 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38">
-        <v>5</v>
+        <v>224</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -3634,15 +3558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>1200</v>
@@ -3660,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39">
-        <v>7</v>
+        <v>224</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3699,15 +3623,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>2200</v>
@@ -3725,13 +3649,13 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40">
-        <v>5</v>
+        <v>224</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3764,15 +3688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>3000</v>
@@ -3790,13 +3714,13 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -3829,15 +3753,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>3500</v>
@@ -3855,13 +3779,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -3894,15 +3818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>1500</v>
@@ -3920,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3959,15 +3883,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>1200</v>
@@ -3985,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -4024,15 +3948,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D45">
         <v>2000</v>
@@ -4050,13 +3974,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4089,15 +4013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>700</v>
@@ -4115,13 +4039,13 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4154,15 +4078,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D47">
         <v>1800</v>
@@ -4180,13 +4104,13 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -4219,15 +4143,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>1200</v>
@@ -4245,13 +4169,13 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4284,15 +4208,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>1200</v>
@@ -4310,13 +4234,13 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
+        <v>224</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4349,15 +4273,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>1000</v>
@@ -4375,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50">
-        <v>16</v>
+        <v>222</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -4414,15 +4338,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>450</v>
@@ -4440,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4479,15 +4403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>350</v>
@@ -4505,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -4544,15 +4468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>650</v>
@@ -4570,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -4609,15 +4533,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>650</v>
@@ -4635,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -4674,15 +4598,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D55">
         <v>40</v>
@@ -4700,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="J55" t="s">
-        <v>251</v>
-      </c>
-      <c r="K55">
-        <v>14</v>
+        <v>225</v>
+      </c>
+      <c r="K55" t="s">
+        <v>212</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -4739,15 +4663,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D56">
         <v>60</v>
@@ -4765,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="J56" t="s">
-        <v>251</v>
-      </c>
-      <c r="K56">
-        <v>14</v>
+        <v>225</v>
+      </c>
+      <c r="K56" t="s">
+        <v>212</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -4804,15 +4728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D57">
         <v>120</v>
@@ -4830,13 +4754,13 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="J57" t="s">
-        <v>251</v>
-      </c>
-      <c r="K57">
-        <v>14</v>
+        <v>225</v>
+      </c>
+      <c r="K57" t="s">
+        <v>212</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4869,15 +4793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>200</v>
@@ -4895,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>251</v>
-      </c>
-      <c r="K58">
-        <v>22</v>
+        <v>226</v>
+      </c>
+      <c r="K58" t="s">
+        <v>212</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4934,15 +4858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>900</v>
@@ -4960,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59">
-        <v>41</v>
+        <v>222</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5001,13 +4925,13 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>500</v>
@@ -5025,10 +4949,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>230</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -5063,13 +4990,13 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>450</v>
@@ -5087,10 +5014,13 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>20</v>
+        <v>228</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5125,13 +5055,13 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>650</v>
@@ -5149,10 +5079,13 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>228</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
       </c>
       <c r="L62">
         <v>4</v>
@@ -5187,13 +5120,13 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>500</v>
@@ -5211,10 +5144,13 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>228</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5249,13 +5185,13 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>3000</v>
@@ -5273,10 +5209,13 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -5311,13 +5250,13 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>2500</v>
@@ -5335,10 +5274,13 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -5373,13 +5315,13 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>2500</v>
@@ -5397,10 +5339,13 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
       </c>
       <c r="L66">
         <v>4</v>
@@ -5435,13 +5380,13 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>2500</v>
@@ -5452,59 +5397,1614 @@
       <c r="F67">
         <v>4</v>
       </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>3000</v>
       </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>2000</v>
       </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>218</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>450</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>225</v>
+      </c>
+      <c r="K70" t="s">
+        <v>212</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>300</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>225</v>
+      </c>
+      <c r="K71" t="s">
+        <v>212</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>260</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>225</v>
+      </c>
+      <c r="K72" t="s">
+        <v>212</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73">
+        <v>900</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>222</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74">
+        <v>1100</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>222</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>1500</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>222</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>1900</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>222</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77">
+        <v>900</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>222</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>1200</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>222</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>1200</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>218</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>2500</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>218</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>3</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>650</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>218</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>950</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>218</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>2600</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>218</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>1100</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>218</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>750</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>218</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>2500</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>218</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>1200</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>218</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>2800</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>218</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>3500</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>218</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>4</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>218</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>2500</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>218</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>218</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>1500</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>218</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S60">
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5512,11 +7012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5528,1453 +7027,1128 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1">
-        <v>900</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>800</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1">
         <v>800</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1">
-        <v>3500</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>800</v>
       </c>
       <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="1">
-        <v>200</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>800</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1">
         <v>2500</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
+        <v>600</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
         <v>800</v>
       </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1">
+        <v>350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>700</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1">
+        <v>850</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1">
+        <v>550</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1">
         <v>2500</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1">
-        <v>600</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1">
+        <v>550</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1">
         <v>2500</v>
       </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1">
+        <v>680</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
         <v>2500</v>
       </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1">
-        <v>600</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1">
-        <v>800</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="1">
-        <v>300</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1">
         <v>350</v>
       </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1800</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="1">
-        <v>250</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1">
         <v>650</v>
       </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1800</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1">
-        <v>700</v>
-      </c>
-      <c r="C32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="1">
-        <v>250</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1400</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="1">
-        <v>850</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="1">
-        <v>950</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="1">
-        <v>550</v>
-      </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>56</v>
       </c>
       <c r="B47" s="1">
         <v>2000</v>
       </c>
       <c r="C47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1">
+        <v>700</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="1">
+        <v>800</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="1">
-        <v>2300</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B51" s="1">
+        <v>550</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="1">
-        <v>550</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B52" s="1">
+        <v>800</v>
+      </c>
+      <c r="C52" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="1">
-        <v>680</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1">
         <v>2500</v>
       </c>
       <c r="C53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1">
+        <v>800</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C56" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1">
+        <v>380</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1350</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="1">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="1">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="1">
+        <v>700</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="1">
-        <v>350</v>
-      </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="1">
-        <v>650</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="B74" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="1">
         <v>700</v>
       </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="1">
-        <v>800</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="1">
-        <v>1800</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="1">
-        <v>550</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="1">
-        <v>1900</v>
-      </c>
-      <c r="C61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="1">
-        <v>800</v>
-      </c>
-      <c r="C62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2600</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="1">
-        <v>800</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1">
-        <v>380</v>
-      </c>
-      <c r="C73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="1">
+        <v>600</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="1">
         <v>1300</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C76" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1350</v>
-      </c>
-      <c r="C78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="1">
-        <v>150</v>
       </c>
       <c r="C79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C80" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="1">
-        <v>300</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="B81" s="1">
         <v>1700</v>
       </c>
       <c r="C81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C83" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="1">
-        <v>1900</v>
-      </c>
-      <c r="C82" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1">
+        <v>800</v>
+      </c>
+      <c r="C84" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B85" s="1">
+        <v>950</v>
+      </c>
+      <c r="C85" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C86" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="1">
-        <v>3500</v>
-      </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B87" s="1">
+        <v>550</v>
+      </c>
+      <c r="C87" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C88" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="1">
-        <v>700</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B89" s="1">
+        <v>500</v>
+      </c>
+      <c r="C89" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="1">
-        <v>900</v>
-      </c>
-      <c r="C87" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B89" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" s="1">
+        <v>850</v>
+      </c>
+      <c r="C90" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C91" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="1">
-        <v>700</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C92" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="1">
-        <v>600</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" s="1">
+        <v>400</v>
+      </c>
+      <c r="C93" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C94" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1">
         <v>1500</v>
       </c>
       <c r="C95" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1700</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C97" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C97" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>64</v>
-      </c>
       <c r="B98" s="1">
-        <v>3500</v>
+        <v>650</v>
       </c>
       <c r="C98" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B99" s="1">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="C100" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="1">
+        <v>800</v>
+      </c>
+      <c r="C101" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="1">
-        <v>950</v>
-      </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1">
+        <v>450</v>
+      </c>
+      <c r="C102" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C102" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>196</v>
-      </c>
-      <c r="B103" s="1">
-        <v>550</v>
-      </c>
-      <c r="C103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C104" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C105" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>39</v>
-      </c>
-      <c r="B106" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C106" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>202</v>
-      </c>
-      <c r="B108" s="1">
-        <v>500</v>
-      </c>
-      <c r="C108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>204</v>
-      </c>
-      <c r="B109" s="1">
-        <v>850</v>
-      </c>
-      <c r="C109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>206</v>
-      </c>
-      <c r="B110" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C110" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>208</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C111" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C112" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>211</v>
-      </c>
-      <c r="B113" s="1">
-        <v>400</v>
-      </c>
-      <c r="C113" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>199</v>
-      </c>
-      <c r="B114" s="1">
-        <v>3500</v>
-      </c>
-      <c r="C114" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>214</v>
-      </c>
-      <c r="B115" s="1">
-        <v>1800</v>
-      </c>
-      <c r="C115" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C116" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C117" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="1">
-        <v>2250</v>
-      </c>
-      <c r="C118" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>199</v>
-      </c>
-      <c r="B119" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C119" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="1">
-        <v>450</v>
-      </c>
-      <c r="C120" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="1">
-        <v>300</v>
-      </c>
-      <c r="C121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>177</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C123" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>225</v>
-      </c>
-      <c r="B124" s="1">
-        <v>650</v>
-      </c>
-      <c r="C124" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>39</v>
-      </c>
-      <c r="B125" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C125" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>87</v>
-      </c>
-      <c r="B126" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C126" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B127" s="1">
-        <v>1700</v>
-      </c>
-      <c r="C127" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="1">
-        <v>260</v>
-      </c>
-      <c r="C128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>53</v>
-      </c>
-      <c r="B129" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C129" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>111</v>
-      </c>
-      <c r="B130" s="1">
-        <v>800</v>
-      </c>
-      <c r="C130" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="1">
-        <v>450</v>
-      </c>
-      <c r="C131" t="s">
-        <v>233</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C131">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Chisipite - House"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C102"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>